--- a/Archetypes/h_archetypes.xlsx
+++ b/Archetypes/h_archetypes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\Archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10FD0F4-C86F-4C1C-9933-B94FF6542F42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BAA320-11C7-4ADE-B05A-8F9748856730}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,7 +429,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Archetypes/h_archetypes.xlsx
+++ b/Archetypes/h_archetypes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\Archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BAA320-11C7-4ADE-B05A-8F9748856730}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8249B5C8-0DA0-4A39-8CB5-8276B760BF77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>name</t>
   </si>
@@ -69,9 +69,6 @@
     <t>active</t>
   </si>
   <si>
-    <t>inactive</t>
-  </si>
-  <si>
     <t>DINK</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>Polinuclear home</t>
-  </si>
-  <si>
     <t>h_archetype_1</t>
   </si>
   <si>
@@ -109,6 +103,9 @@
   </si>
   <si>
     <t>h_archetype_0</t>
+  </si>
+  <si>
+    <t>Polinuclear home (youth)</t>
   </si>
 </sst>
 </file>
@@ -457,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -474,7 +471,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -497,7 +494,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -517,7 +514,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -537,30 +534,24 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -569,15 +560,15 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -586,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -595,15 +586,15 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -620,25 +611,28 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
